--- a/biology/Médecine/Orteil_de_Morton/Orteil_de_Morton.xlsx
+++ b/biology/Médecine/Orteil_de_Morton/Orteil_de_Morton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L' orteil de Morton ou pied grec est la condition d'un premier métatarse plus court par rapport au deuxième métatarse. C'est un type de brachymétatarsie.  
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les os métatarsiens derrière les orteils varient en longueur relative. Pour la plupart des pieds, une courbe lisse peut être tracée à travers les articulations à la base des orteils. Mais dans le pied de Morton, la ligne doit se plier plus fortement pour passer par la base du gros orteil, comme le montre le schéma. C'est parce que le premier métatarsien, derrière le gros orteil, est court par rapport au deuxième métatarsien, à côté de lui. Le deuxième métatarsien le plus long place l'articulation à la base du deuxième orteil (la deuxième articulation métatarsienne-phalangienne, ou MTP) plus en avant. 
 Si le gros orteil et le deuxième orteil ont la même longueur (mesurée de l'articulation MPT à la pointe, y compris uniquement les phalanges), le deuxième orteil fera saillie plus loin que le gros orteil, comme indiqué sur la photo. Si le deuxième orteil est plus court que le gros orteil, le gros orteil peut toujours dépasser le plus éloigné, ou il peut y avoir peu de différence, comme indiqué sur la radiographie. 
-Le symptôme le plus souvent ressenti en raison de l'orteil de Morton est la callosité et / ou un inconfort de la plante du pied à la base du deuxième orteil. La première tête métatarsienne devrait normalement supporter la plus grande partie du poids du corps de la personne durant les phases propulsives de la démarche, mais comme la deuxième tête métatarsienne est la plus en avant, la force y est transférée. La douleur peut également être ressentie dans la voûte plantaire, à l'extrémité des premier et deuxième métatarsiens, à la cheville[1]. 
-Dans les cultures portant des chaussures, l'orteil de Morton peut être problématique. Par exemple, le port de chaussures dont le profil ne convient pas pour un deuxième orteil plus long peut causer des douleurs au pied. Une petite étude (80 personnes) n'a pas trouvé de différence statistiquement significative dans la fréquence des orteils secondaires plus longs entre les personnes avec et sans ongles incarnés, mais des chaussures étroites et mal ajustées sont généralement considérées comme augmentant le risque d'ongles incarnés [2],[3] et les chaussures sont souvent trop serrées sur les orteils[4].
+Le symptôme le plus souvent ressenti en raison de l'orteil de Morton est la callosité et / ou un inconfort de la plante du pied à la base du deuxième orteil. La première tête métatarsienne devrait normalement supporter la plus grande partie du poids du corps de la personne durant les phases propulsives de la démarche, mais comme la deuxième tête métatarsienne est la plus en avant, la force y est transférée. La douleur peut également être ressentie dans la voûte plantaire, à l'extrémité des premier et deuxième métatarsiens, à la cheville. 
+Dans les cultures portant des chaussures, l'orteil de Morton peut être problématique. Par exemple, le port de chaussures dont le profil ne convient pas pour un deuxième orteil plus long peut causer des douleurs au pied. Une petite étude (80 personnes) n'a pas trouvé de différence statistiquement significative dans la fréquence des orteils secondaires plus longs entre les personnes avec et sans ongles incarnés, mais des chaussures étroites et mal ajustées sont généralement considérées comme augmentant le risque d'ongles incarnés , et les chaussures sont souvent trop serrées sur les orteils.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Condition associée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les problèmes associés à l'orteil de Morton, il y a le fait que la répartition du poids fait que l'avant du pied s'élargit à mesure que le poids passe du premier orteil raccourci aux autres. Les chaussures régulières causent souvent des métatarsalgies et des névromes lorsque la chaussure pousse les orteils ensemble, d'où le cas du névrome de Morton. Des chaussures larges sont recommandées[réf. nécessaire]
 </t>
@@ -576,7 +592,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les variations anatomiques asymptomatiques des pieds ne nécessitent généralement pas de traitement.
 Le traitement conservateur de la douleur au pied avec l'orteil de Morton peut comprendre des exercices ou la pose d'un coussinet souple sous le premier orteil et le métatarsien ; une version antérieure de ce dernier traitement a déjà été brevetée par Dudley Joy Morton. Le rétablissement du fonctionnement normal de l'orteil de Morton à l'aide d'orthèses proprioceptives peut aider à soulager de nombreux problèmes du pied comme la métatarsalgie, les orteils en marteau, les oignons, le névrome de Morton, la fasciite plantaire et la fatigue générale du pied.  
@@ -608,7 +626,9 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'orteil de Morton est une variante minoritaire de la forme du pied. Sa prévalence enregistrée varie selon les populations, avec des estimations allant de 2,95 % à 22 %. 
 </t>
@@ -639,7 +659,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du chirurgien orthopédiste américain Dudley Joy Morton (1884-1960), qui l'a initialement décrit comme faisant partie de la triade de Morton (syndrome de Morton ou syndrome du pied de Morton) : un premier os métatarsien court congénital, un hypermobile premier segment métatarsien et des callosités sous les deuxième et troisième métatarses.
 La confusion est née de l'utilisation du « pied de Morton » pour une affection différente, la métatarsalgie de Morton, qui affecte l'espace entre les os et qui porte le nom de Thomas George Morton (1835-1903). 
@@ -671,7 +693,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'orteil de Morton, en particulier les versions où le second orteil est plus long, est associé avec des interprétations anthropologiques et ethniques contestées. Morton l'appelait Metatarsus atavicus, le considérant comme un atavisme rappelant les orteils préhumains. Dans la statuaire et l'ajustement des chaussures, un deuxième orteil plus proéminent a été appelé le pied grec (par opposition au pied égyptien, où le gros orteil est plus long). C'était une forme idéalisée dans la sculpture grecque, et cela a persisté en tant que norme esthétique à travers les périodes romaine et Renaissance et plus tard (la statue de la Liberté a des orteils de cette proportion). Il existe également des associations au sein des groupes celtes. Les Français l'appellent communément pied grec (comme les Italiens l'appellent pied grec) mais parfois pied ancestral ou pied de Néanderthal.
 </t>
